--- a/Calificaciones 2025-2026/N7_HIS_C.xlsx
+++ b/Calificaciones 2025-2026/N7_HIS_C.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSE2GA\Documents\Personal\Tere Guerra\Meraki\Calificaciones 2025-2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\activ\Documents\Meraki\Calificaciones 2025-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879D9DBB-BF47-4198-A99D-0BCAE8838CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F9F61C-A1B5-49E4-B8BB-5F6E04975BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-96" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B2EF7373-A7E6-423B-9BCC-817B77FBEC7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2EF7373-A7E6-423B-9BCC-817B77FBEC7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Calificaciones" sheetId="3" r:id="rId1"/>
     <sheet name="Tareas" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -456,6 +457,15 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,18 +479,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +507,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -824,11 +825,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECF9521-3E5C-4485-A0EE-99CC705EEB69}">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -843,22 +844,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -2123,11 +2124,11 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="12">
         <f>AVERAGE(E6:E36)</f>
         <v>5.064516129032258</v>
@@ -2177,11 +2178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596C8BC0-6E16-496A-96B3-BD682E639AA1}">
   <dimension ref="B2:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -2204,131 +2205,131 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
     </row>
     <row r="3" spans="2:31" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AD3" s="14" t="s">
         <v>65</v>
       </c>
       <c r="AE3" s="6"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="8">
         <v>1</v>
       </c>
@@ -2421,32 +2422,32 @@
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
       <c r="AE5" s="6"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
@@ -2459,82 +2460,82 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
-        <v>0</v>
-      </c>
-      <c r="O6" s="22">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>0</v>
-      </c>
-      <c r="R6" s="22">
-        <v>0</v>
-      </c>
-      <c r="S6" s="22">
-        <v>0</v>
-      </c>
-      <c r="T6" s="22">
-        <v>0</v>
-      </c>
-      <c r="U6" s="22">
-        <v>0</v>
-      </c>
-      <c r="V6" s="22">
-        <v>0</v>
-      </c>
-      <c r="W6" s="22">
-        <v>0</v>
-      </c>
-      <c r="X6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="22">
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <v>0</v>
+      </c>
+      <c r="S6" s="16">
+        <v>0</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <v>0</v>
+      </c>
+      <c r="W6" s="16">
+        <v>0</v>
+      </c>
+      <c r="X6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="16">
         <v>0</v>
       </c>
       <c r="AE6" s="10">
@@ -2552,82 +2553,82 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
-      <c r="O7" s="22">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>0</v>
-      </c>
-      <c r="R7" s="22">
-        <v>0</v>
-      </c>
-      <c r="S7" s="22">
-        <v>0</v>
-      </c>
-      <c r="T7" s="22">
-        <v>0</v>
-      </c>
-      <c r="U7" s="22">
-        <v>0</v>
-      </c>
-      <c r="V7" s="22">
-        <v>0</v>
-      </c>
-      <c r="W7" s="22">
-        <v>0</v>
-      </c>
-      <c r="X7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="22">
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
         <v>0</v>
       </c>
       <c r="AE7" s="10">
@@ -2645,82 +2646,82 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="22">
-        <v>0</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="22">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-      <c r="O8" s="22">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>0</v>
-      </c>
-      <c r="R8" s="22">
-        <v>0</v>
-      </c>
-      <c r="S8" s="22">
-        <v>0</v>
-      </c>
-      <c r="T8" s="22">
-        <v>0</v>
-      </c>
-      <c r="U8" s="22">
-        <v>0</v>
-      </c>
-      <c r="V8" s="22">
-        <v>0</v>
-      </c>
-      <c r="W8" s="22">
-        <v>0</v>
-      </c>
-      <c r="X8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="22">
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
         <v>0</v>
       </c>
       <c r="AE8" s="10">
@@ -2738,82 +2739,82 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="22">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>0</v>
-      </c>
-      <c r="R9" s="22">
-        <v>0</v>
-      </c>
-      <c r="S9" s="22">
-        <v>0</v>
-      </c>
-      <c r="T9" s="22">
-        <v>0</v>
-      </c>
-      <c r="U9" s="22">
-        <v>0</v>
-      </c>
-      <c r="V9" s="22">
-        <v>0</v>
-      </c>
-      <c r="W9" s="22">
-        <v>0</v>
-      </c>
-      <c r="X9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="22">
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
         <v>0</v>
       </c>
       <c r="AE9" s="10">
@@ -2831,82 +2832,82 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="22">
-        <v>0</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0</v>
-      </c>
-      <c r="R10" s="22">
-        <v>0</v>
-      </c>
-      <c r="S10" s="22">
-        <v>0</v>
-      </c>
-      <c r="T10" s="22">
-        <v>0</v>
-      </c>
-      <c r="U10" s="22">
-        <v>0</v>
-      </c>
-      <c r="V10" s="22">
-        <v>0</v>
-      </c>
-      <c r="W10" s="22">
-        <v>0</v>
-      </c>
-      <c r="X10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="22">
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16">
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16">
         <v>0</v>
       </c>
       <c r="AE10" s="10">
@@ -2924,82 +2925,82 @@
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22">
-        <v>0</v>
-      </c>
-      <c r="F11" s="22">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22">
-        <v>0</v>
-      </c>
-      <c r="O11" s="22">
-        <v>0</v>
-      </c>
-      <c r="P11" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>0</v>
-      </c>
-      <c r="R11" s="22">
-        <v>0</v>
-      </c>
-      <c r="S11" s="22">
-        <v>0</v>
-      </c>
-      <c r="T11" s="22">
-        <v>0</v>
-      </c>
-      <c r="U11" s="22">
-        <v>0</v>
-      </c>
-      <c r="V11" s="22">
-        <v>0</v>
-      </c>
-      <c r="W11" s="22">
-        <v>0</v>
-      </c>
-      <c r="X11" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="22">
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="16">
         <v>0</v>
       </c>
       <c r="AE11" s="10">
@@ -3017,82 +3018,82 @@
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
-        <v>0</v>
-      </c>
-      <c r="M12" s="22">
-        <v>0</v>
-      </c>
-      <c r="N12" s="22">
-        <v>0</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>0</v>
-      </c>
-      <c r="R12" s="22">
-        <v>0</v>
-      </c>
-      <c r="S12" s="22">
-        <v>0</v>
-      </c>
-      <c r="T12" s="22">
-        <v>0</v>
-      </c>
-      <c r="U12" s="22">
-        <v>0</v>
-      </c>
-      <c r="V12" s="22">
-        <v>0</v>
-      </c>
-      <c r="W12" s="22">
-        <v>0</v>
-      </c>
-      <c r="X12" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="22">
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0</v>
+      </c>
+      <c r="T12" s="16">
+        <v>0</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <v>0</v>
+      </c>
+      <c r="X12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16">
         <v>0</v>
       </c>
       <c r="AE12" s="10">
@@ -3110,82 +3111,82 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
-        <v>0</v>
-      </c>
-      <c r="O13" s="22">
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>0</v>
-      </c>
-      <c r="R13" s="22">
-        <v>0</v>
-      </c>
-      <c r="S13" s="22">
-        <v>0</v>
-      </c>
-      <c r="T13" s="22">
-        <v>0</v>
-      </c>
-      <c r="U13" s="22">
-        <v>0</v>
-      </c>
-      <c r="V13" s="22">
-        <v>0</v>
-      </c>
-      <c r="W13" s="22">
-        <v>0</v>
-      </c>
-      <c r="X13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="22">
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="16">
         <v>0</v>
       </c>
       <c r="AE13" s="10">
@@ -3203,82 +3204,82 @@
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="22">
-        <v>0</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
-        <v>0</v>
-      </c>
-      <c r="M14" s="22">
-        <v>0</v>
-      </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-      <c r="O14" s="22">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>0</v>
-      </c>
-      <c r="R14" s="22">
-        <v>0</v>
-      </c>
-      <c r="S14" s="22">
-        <v>0</v>
-      </c>
-      <c r="T14" s="22">
-        <v>0</v>
-      </c>
-      <c r="U14" s="22">
-        <v>0</v>
-      </c>
-      <c r="V14" s="22">
-        <v>0</v>
-      </c>
-      <c r="W14" s="22">
-        <v>0</v>
-      </c>
-      <c r="X14" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="22">
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+      <c r="T14" s="16">
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0</v>
+      </c>
+      <c r="W14" s="16">
+        <v>0</v>
+      </c>
+      <c r="X14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="16">
         <v>0</v>
       </c>
       <c r="AE14" s="10">
@@ -3296,82 +3297,82 @@
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <v>0</v>
-      </c>
-      <c r="K15" s="22">
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-      <c r="O15" s="22">
-        <v>0</v>
-      </c>
-      <c r="P15" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>0</v>
-      </c>
-      <c r="R15" s="22">
-        <v>0</v>
-      </c>
-      <c r="S15" s="22">
-        <v>0</v>
-      </c>
-      <c r="T15" s="22">
-        <v>0</v>
-      </c>
-      <c r="U15" s="22">
-        <v>0</v>
-      </c>
-      <c r="V15" s="22">
-        <v>0</v>
-      </c>
-      <c r="W15" s="22">
-        <v>0</v>
-      </c>
-      <c r="X15" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="22">
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0</v>
+      </c>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0</v>
+      </c>
+      <c r="W15" s="16">
+        <v>0</v>
+      </c>
+      <c r="X15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="16">
         <v>0</v>
       </c>
       <c r="AE15" s="10">
@@ -3389,82 +3390,82 @@
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="22">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22">
-        <v>0</v>
-      </c>
-      <c r="L16" s="22">
-        <v>0</v>
-      </c>
-      <c r="M16" s="22">
-        <v>0</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
-      </c>
-      <c r="O16" s="22">
-        <v>0</v>
-      </c>
-      <c r="P16" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>0</v>
-      </c>
-      <c r="R16" s="22">
-        <v>0</v>
-      </c>
-      <c r="S16" s="22">
-        <v>0</v>
-      </c>
-      <c r="T16" s="22">
-        <v>0</v>
-      </c>
-      <c r="U16" s="22">
-        <v>0</v>
-      </c>
-      <c r="V16" s="22">
-        <v>0</v>
-      </c>
-      <c r="W16" s="22">
-        <v>0</v>
-      </c>
-      <c r="X16" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="22">
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
+        <v>0</v>
+      </c>
+      <c r="S16" s="16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <v>0</v>
+      </c>
+      <c r="X16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="16">
         <v>0</v>
       </c>
       <c r="AE16" s="10">
@@ -3482,82 +3483,82 @@
       <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="22">
-        <v>0</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
-        <v>0</v>
-      </c>
-      <c r="K17" s="22">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0</v>
-      </c>
-      <c r="M17" s="22">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
-      </c>
-      <c r="O17" s="22">
-        <v>0</v>
-      </c>
-      <c r="P17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>0</v>
-      </c>
-      <c r="R17" s="22">
-        <v>0</v>
-      </c>
-      <c r="S17" s="22">
-        <v>0</v>
-      </c>
-      <c r="T17" s="22">
-        <v>0</v>
-      </c>
-      <c r="U17" s="22">
-        <v>0</v>
-      </c>
-      <c r="V17" s="22">
-        <v>0</v>
-      </c>
-      <c r="W17" s="22">
-        <v>0</v>
-      </c>
-      <c r="X17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="22">
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <v>0</v>
+      </c>
+      <c r="T17" s="16">
+        <v>0</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <v>0</v>
+      </c>
+      <c r="X17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="16">
         <v>0</v>
       </c>
       <c r="AE17" s="10">
@@ -3575,82 +3576,82 @@
       <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="22">
-        <v>0</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
-        <v>0</v>
-      </c>
-      <c r="K18" s="22">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
-      </c>
-      <c r="O18" s="22">
-        <v>0</v>
-      </c>
-      <c r="P18" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>0</v>
-      </c>
-      <c r="R18" s="22">
-        <v>0</v>
-      </c>
-      <c r="S18" s="22">
-        <v>0</v>
-      </c>
-      <c r="T18" s="22">
-        <v>0</v>
-      </c>
-      <c r="U18" s="22">
-        <v>0</v>
-      </c>
-      <c r="V18" s="22">
-        <v>0</v>
-      </c>
-      <c r="W18" s="22">
-        <v>0</v>
-      </c>
-      <c r="X18" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="22">
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0</v>
+      </c>
+      <c r="N18" s="16">
+        <v>0</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0</v>
+      </c>
+      <c r="S18" s="16">
+        <v>0</v>
+      </c>
+      <c r="T18" s="16">
+        <v>0</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0</v>
+      </c>
+      <c r="V18" s="16">
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <v>0</v>
+      </c>
+      <c r="X18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="16">
         <v>0</v>
       </c>
       <c r="AE18" s="10">
@@ -3668,82 +3669,82 @@
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="22">
-        <v>0</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22">
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
-        <v>0</v>
-      </c>
-      <c r="M19" s="22">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
-        <v>0</v>
-      </c>
-      <c r="O19" s="22">
-        <v>0</v>
-      </c>
-      <c r="P19" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>0</v>
-      </c>
-      <c r="R19" s="22">
-        <v>0</v>
-      </c>
-      <c r="S19" s="22">
-        <v>0</v>
-      </c>
-      <c r="T19" s="22">
-        <v>0</v>
-      </c>
-      <c r="U19" s="22">
-        <v>0</v>
-      </c>
-      <c r="V19" s="22">
-        <v>0</v>
-      </c>
-      <c r="W19" s="22">
-        <v>0</v>
-      </c>
-      <c r="X19" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="22">
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0</v>
+      </c>
+      <c r="R19" s="16">
+        <v>0</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0</v>
+      </c>
+      <c r="T19" s="16">
+        <v>0</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0</v>
+      </c>
+      <c r="W19" s="16">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="16">
         <v>0</v>
       </c>
       <c r="AE19" s="10">
@@ -3761,82 +3762,82 @@
       <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="22">
-        <v>0</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
-      <c r="J20" s="22">
-        <v>0</v>
-      </c>
-      <c r="K20" s="22">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="22">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
-      </c>
-      <c r="O20" s="22">
-        <v>0</v>
-      </c>
-      <c r="P20" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>0</v>
-      </c>
-      <c r="R20" s="22">
-        <v>0</v>
-      </c>
-      <c r="S20" s="22">
-        <v>0</v>
-      </c>
-      <c r="T20" s="22">
-        <v>0</v>
-      </c>
-      <c r="U20" s="22">
-        <v>0</v>
-      </c>
-      <c r="V20" s="22">
-        <v>0</v>
-      </c>
-      <c r="W20" s="22">
-        <v>0</v>
-      </c>
-      <c r="X20" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="22">
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0</v>
+      </c>
+      <c r="T20" s="16">
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0</v>
+      </c>
+      <c r="V20" s="16">
+        <v>0</v>
+      </c>
+      <c r="W20" s="16">
+        <v>0</v>
+      </c>
+      <c r="X20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="16">
         <v>0</v>
       </c>
       <c r="AE20" s="10">
@@ -3854,82 +3855,82 @@
       <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="22">
-        <v>0</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22">
-        <v>0</v>
-      </c>
-      <c r="H21" s="22">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
-        <v>0</v>
-      </c>
-      <c r="J21" s="22">
-        <v>0</v>
-      </c>
-      <c r="K21" s="22">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-      <c r="M21" s="22">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="22">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>0</v>
-      </c>
-      <c r="R21" s="22">
-        <v>0</v>
-      </c>
-      <c r="S21" s="22">
-        <v>0</v>
-      </c>
-      <c r="T21" s="22">
-        <v>0</v>
-      </c>
-      <c r="U21" s="22">
-        <v>0</v>
-      </c>
-      <c r="V21" s="22">
-        <v>0</v>
-      </c>
-      <c r="W21" s="22">
-        <v>0</v>
-      </c>
-      <c r="X21" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="22">
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
+        <v>0</v>
+      </c>
+      <c r="N21" s="16">
+        <v>0</v>
+      </c>
+      <c r="O21" s="16">
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0</v>
+      </c>
+      <c r="T21" s="16">
+        <v>0</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
+        <v>0</v>
+      </c>
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
+      <c r="X21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="16">
         <v>0</v>
       </c>
       <c r="AE21" s="10">
@@ -3947,82 +3948,82 @@
       <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="22">
-        <v>0</v>
-      </c>
-      <c r="R22" s="22">
-        <v>0</v>
-      </c>
-      <c r="S22" s="22">
-        <v>0</v>
-      </c>
-      <c r="T22" s="22">
-        <v>0</v>
-      </c>
-      <c r="U22" s="22">
-        <v>0</v>
-      </c>
-      <c r="V22" s="22">
-        <v>0</v>
-      </c>
-      <c r="W22" s="22">
-        <v>0</v>
-      </c>
-      <c r="X22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="22">
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0</v>
+      </c>
+      <c r="T22" s="16">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <v>0</v>
+      </c>
+      <c r="W22" s="16">
+        <v>0</v>
+      </c>
+      <c r="X22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="16">
         <v>0</v>
       </c>
       <c r="AE22" s="10">
@@ -4040,82 +4041,82 @@
       <c r="D23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="22">
-        <v>0</v>
-      </c>
-      <c r="F23" s="22">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22">
-        <v>0</v>
-      </c>
-      <c r="J23" s="22">
-        <v>0</v>
-      </c>
-      <c r="K23" s="22">
-        <v>0</v>
-      </c>
-      <c r="L23" s="22">
-        <v>0</v>
-      </c>
-      <c r="M23" s="22">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22">
-        <v>0</v>
-      </c>
-      <c r="O23" s="22">
-        <v>0</v>
-      </c>
-      <c r="P23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="22">
-        <v>0</v>
-      </c>
-      <c r="R23" s="22">
-        <v>0</v>
-      </c>
-      <c r="S23" s="22">
-        <v>0</v>
-      </c>
-      <c r="T23" s="22">
-        <v>0</v>
-      </c>
-      <c r="U23" s="22">
-        <v>0</v>
-      </c>
-      <c r="V23" s="22">
-        <v>0</v>
-      </c>
-      <c r="W23" s="22">
-        <v>0</v>
-      </c>
-      <c r="X23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="22">
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0</v>
+      </c>
+      <c r="N23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+      <c r="P23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="16">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16">
+        <v>0</v>
+      </c>
+      <c r="V23" s="16">
+        <v>0</v>
+      </c>
+      <c r="W23" s="16">
+        <v>0</v>
+      </c>
+      <c r="X23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="16">
         <v>0</v>
       </c>
       <c r="AE23" s="10">
@@ -4133,82 +4134,82 @@
       <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="22">
-        <v>0</v>
-      </c>
-      <c r="F24" s="22">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
-        <v>0</v>
-      </c>
-      <c r="K24" s="22">
-        <v>0</v>
-      </c>
-      <c r="L24" s="22">
-        <v>0</v>
-      </c>
-      <c r="M24" s="22">
-        <v>0</v>
-      </c>
-      <c r="N24" s="22">
-        <v>0</v>
-      </c>
-      <c r="O24" s="22">
-        <v>0</v>
-      </c>
-      <c r="P24" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>0</v>
-      </c>
-      <c r="R24" s="22">
-        <v>0</v>
-      </c>
-      <c r="S24" s="22">
-        <v>0</v>
-      </c>
-      <c r="T24" s="22">
-        <v>0</v>
-      </c>
-      <c r="U24" s="22">
-        <v>0</v>
-      </c>
-      <c r="V24" s="22">
-        <v>0</v>
-      </c>
-      <c r="W24" s="22">
-        <v>0</v>
-      </c>
-      <c r="X24" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="22">
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="16">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
+        <v>0</v>
+      </c>
+      <c r="W24" s="16">
+        <v>0</v>
+      </c>
+      <c r="X24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="16">
         <v>0</v>
       </c>
       <c r="AE24" s="10">
@@ -4226,82 +4227,82 @@
       <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="22">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
-        <v>0</v>
-      </c>
-      <c r="K25" s="22">
-        <v>0</v>
-      </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="22">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22">
-        <v>0</v>
-      </c>
-      <c r="O25" s="22">
-        <v>0</v>
-      </c>
-      <c r="P25" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="22">
-        <v>0</v>
-      </c>
-      <c r="R25" s="22">
-        <v>0</v>
-      </c>
-      <c r="S25" s="22">
-        <v>0</v>
-      </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="22">
-        <v>0</v>
-      </c>
-      <c r="V25" s="22">
-        <v>0</v>
-      </c>
-      <c r="W25" s="22">
-        <v>0</v>
-      </c>
-      <c r="X25" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="22">
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0</v>
+      </c>
+      <c r="N25" s="16">
+        <v>0</v>
+      </c>
+      <c r="O25" s="16">
+        <v>0</v>
+      </c>
+      <c r="P25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0</v>
+      </c>
+      <c r="R25" s="16">
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0</v>
+      </c>
+      <c r="T25" s="16">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0</v>
+      </c>
+      <c r="X25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="16">
         <v>0</v>
       </c>
       <c r="AE25" s="10">
@@ -4319,82 +4320,82 @@
       <c r="D26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="22">
-        <v>0</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22">
-        <v>0</v>
-      </c>
-      <c r="H26" s="22">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="22">
-        <v>0</v>
-      </c>
-      <c r="K26" s="22">
-        <v>0</v>
-      </c>
-      <c r="L26" s="22">
-        <v>0</v>
-      </c>
-      <c r="M26" s="22">
-        <v>0</v>
-      </c>
-      <c r="N26" s="22">
-        <v>0</v>
-      </c>
-      <c r="O26" s="22">
-        <v>0</v>
-      </c>
-      <c r="P26" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="22">
-        <v>0</v>
-      </c>
-      <c r="R26" s="22">
-        <v>0</v>
-      </c>
-      <c r="S26" s="22">
-        <v>0</v>
-      </c>
-      <c r="T26" s="22">
-        <v>0</v>
-      </c>
-      <c r="U26" s="22">
-        <v>0</v>
-      </c>
-      <c r="V26" s="22">
-        <v>0</v>
-      </c>
-      <c r="W26" s="22">
-        <v>0</v>
-      </c>
-      <c r="X26" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="22">
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0</v>
+      </c>
+      <c r="O26" s="16">
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0</v>
+      </c>
+      <c r="T26" s="16">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>0</v>
+      </c>
+      <c r="W26" s="16">
+        <v>0</v>
+      </c>
+      <c r="X26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="16">
         <v>0</v>
       </c>
       <c r="AE26" s="10">
@@ -4412,82 +4413,82 @@
       <c r="D27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="22">
-        <v>0</v>
-      </c>
-      <c r="F27" s="22">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22">
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
-        <v>0</v>
-      </c>
-      <c r="J27" s="22">
-        <v>0</v>
-      </c>
-      <c r="K27" s="22">
-        <v>0</v>
-      </c>
-      <c r="L27" s="22">
-        <v>0</v>
-      </c>
-      <c r="M27" s="22">
-        <v>0</v>
-      </c>
-      <c r="N27" s="22">
-        <v>0</v>
-      </c>
-      <c r="O27" s="22">
-        <v>0</v>
-      </c>
-      <c r="P27" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="22">
-        <v>0</v>
-      </c>
-      <c r="R27" s="22">
-        <v>0</v>
-      </c>
-      <c r="S27" s="22">
-        <v>0</v>
-      </c>
-      <c r="T27" s="22">
-        <v>0</v>
-      </c>
-      <c r="U27" s="22">
-        <v>0</v>
-      </c>
-      <c r="V27" s="22">
-        <v>0</v>
-      </c>
-      <c r="W27" s="22">
-        <v>0</v>
-      </c>
-      <c r="X27" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="22">
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
+        <v>0</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0</v>
+      </c>
+      <c r="T27" s="16">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
+        <v>0</v>
+      </c>
+      <c r="W27" s="16">
+        <v>0</v>
+      </c>
+      <c r="X27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="16">
         <v>0</v>
       </c>
       <c r="AE27" s="10">
@@ -4505,82 +4506,82 @@
       <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="22">
-        <v>0</v>
-      </c>
-      <c r="F28" s="22">
-        <v>0</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="22">
-        <v>0</v>
-      </c>
-      <c r="K28" s="22">
-        <v>0</v>
-      </c>
-      <c r="L28" s="22">
-        <v>0</v>
-      </c>
-      <c r="M28" s="22">
-        <v>0</v>
-      </c>
-      <c r="N28" s="22">
-        <v>0</v>
-      </c>
-      <c r="O28" s="22">
-        <v>0</v>
-      </c>
-      <c r="P28" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="22">
-        <v>0</v>
-      </c>
-      <c r="R28" s="22">
-        <v>0</v>
-      </c>
-      <c r="S28" s="22">
-        <v>0</v>
-      </c>
-      <c r="T28" s="22">
-        <v>0</v>
-      </c>
-      <c r="U28" s="22">
-        <v>0</v>
-      </c>
-      <c r="V28" s="22">
-        <v>0</v>
-      </c>
-      <c r="W28" s="22">
-        <v>0</v>
-      </c>
-      <c r="X28" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="22">
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0</v>
+      </c>
+      <c r="N28" s="16">
+        <v>0</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0</v>
+      </c>
+      <c r="P28" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0</v>
+      </c>
+      <c r="R28" s="16">
+        <v>0</v>
+      </c>
+      <c r="S28" s="16">
+        <v>0</v>
+      </c>
+      <c r="T28" s="16">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0</v>
+      </c>
+      <c r="V28" s="16">
+        <v>0</v>
+      </c>
+      <c r="W28" s="16">
+        <v>0</v>
+      </c>
+      <c r="X28" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="16">
         <v>0</v>
       </c>
       <c r="AE28" s="10">
@@ -4598,82 +4599,82 @@
       <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="22">
-        <v>0</v>
-      </c>
-      <c r="F29" s="22">
-        <v>0</v>
-      </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="22">
-        <v>0</v>
-      </c>
-      <c r="K29" s="22">
-        <v>0</v>
-      </c>
-      <c r="L29" s="22">
-        <v>0</v>
-      </c>
-      <c r="M29" s="22">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22">
-        <v>0</v>
-      </c>
-      <c r="O29" s="22">
-        <v>0</v>
-      </c>
-      <c r="P29" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>0</v>
-      </c>
-      <c r="R29" s="22">
-        <v>0</v>
-      </c>
-      <c r="S29" s="22">
-        <v>0</v>
-      </c>
-      <c r="T29" s="22">
-        <v>0</v>
-      </c>
-      <c r="U29" s="22">
-        <v>0</v>
-      </c>
-      <c r="V29" s="22">
-        <v>0</v>
-      </c>
-      <c r="W29" s="22">
-        <v>0</v>
-      </c>
-      <c r="X29" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="22">
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
+        <v>0</v>
+      </c>
+      <c r="W29" s="16">
+        <v>0</v>
+      </c>
+      <c r="X29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="16">
         <v>0</v>
       </c>
       <c r="AE29" s="10">
@@ -4691,82 +4692,82 @@
       <c r="D30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="22">
-        <v>0</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="22">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
-      <c r="J30" s="22">
-        <v>0</v>
-      </c>
-      <c r="K30" s="22">
-        <v>0</v>
-      </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="22">
-        <v>0</v>
-      </c>
-      <c r="N30" s="22">
-        <v>0</v>
-      </c>
-      <c r="O30" s="22">
-        <v>0</v>
-      </c>
-      <c r="P30" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="22">
-        <v>0</v>
-      </c>
-      <c r="R30" s="22">
-        <v>0</v>
-      </c>
-      <c r="S30" s="22">
-        <v>0</v>
-      </c>
-      <c r="T30" s="22">
-        <v>0</v>
-      </c>
-      <c r="U30" s="22">
-        <v>0</v>
-      </c>
-      <c r="V30" s="22">
-        <v>0</v>
-      </c>
-      <c r="W30" s="22">
-        <v>0</v>
-      </c>
-      <c r="X30" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="22">
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0</v>
+      </c>
+      <c r="T30" s="16">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
+        <v>0</v>
+      </c>
+      <c r="W30" s="16">
+        <v>0</v>
+      </c>
+      <c r="X30" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16">
         <v>0</v>
       </c>
       <c r="AE30" s="10">
@@ -4784,82 +4785,82 @@
       <c r="D31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="22">
-        <v>0</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0</v>
-      </c>
-      <c r="G31" s="22">
-        <v>0</v>
-      </c>
-      <c r="H31" s="22">
-        <v>0</v>
-      </c>
-      <c r="I31" s="22">
-        <v>0</v>
-      </c>
-      <c r="J31" s="22">
-        <v>0</v>
-      </c>
-      <c r="K31" s="22">
-        <v>0</v>
-      </c>
-      <c r="L31" s="22">
-        <v>0</v>
-      </c>
-      <c r="M31" s="22">
-        <v>0</v>
-      </c>
-      <c r="N31" s="22">
-        <v>0</v>
-      </c>
-      <c r="O31" s="22">
-        <v>0</v>
-      </c>
-      <c r="P31" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="22">
-        <v>0</v>
-      </c>
-      <c r="R31" s="22">
-        <v>0</v>
-      </c>
-      <c r="S31" s="22">
-        <v>0</v>
-      </c>
-      <c r="T31" s="22">
-        <v>0</v>
-      </c>
-      <c r="U31" s="22">
-        <v>0</v>
-      </c>
-      <c r="V31" s="22">
-        <v>0</v>
-      </c>
-      <c r="W31" s="22">
-        <v>0</v>
-      </c>
-      <c r="X31" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="22">
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>0</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0</v>
+      </c>
+      <c r="T31" s="16">
+        <v>0</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
+        <v>0</v>
+      </c>
+      <c r="W31" s="16">
+        <v>0</v>
+      </c>
+      <c r="X31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="16">
         <v>0</v>
       </c>
       <c r="AE31" s="10">
@@ -4877,82 +4878,82 @@
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="22">
-        <v>0</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22">
-        <v>0</v>
-      </c>
-      <c r="J32" s="22">
-        <v>0</v>
-      </c>
-      <c r="K32" s="22">
-        <v>0</v>
-      </c>
-      <c r="L32" s="22">
-        <v>0</v>
-      </c>
-      <c r="M32" s="22">
-        <v>0</v>
-      </c>
-      <c r="N32" s="22">
-        <v>0</v>
-      </c>
-      <c r="O32" s="22">
-        <v>0</v>
-      </c>
-      <c r="P32" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="22">
-        <v>0</v>
-      </c>
-      <c r="R32" s="22">
-        <v>0</v>
-      </c>
-      <c r="S32" s="22">
-        <v>0</v>
-      </c>
-      <c r="T32" s="22">
-        <v>0</v>
-      </c>
-      <c r="U32" s="22">
-        <v>0</v>
-      </c>
-      <c r="V32" s="22">
-        <v>0</v>
-      </c>
-      <c r="W32" s="22">
-        <v>0</v>
-      </c>
-      <c r="X32" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="22">
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>0</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0</v>
+      </c>
+      <c r="W32" s="16">
+        <v>0</v>
+      </c>
+      <c r="X32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="16">
         <v>0</v>
       </c>
       <c r="AE32" s="10">
@@ -4970,82 +4971,82 @@
       <c r="D33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="22">
-        <v>0</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="22">
-        <v>0</v>
-      </c>
-      <c r="K33" s="22">
-        <v>0</v>
-      </c>
-      <c r="L33" s="22">
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
-        <v>0</v>
-      </c>
-      <c r="N33" s="22">
-        <v>0</v>
-      </c>
-      <c r="O33" s="22">
-        <v>0</v>
-      </c>
-      <c r="P33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>0</v>
-      </c>
-      <c r="R33" s="22">
-        <v>0</v>
-      </c>
-      <c r="S33" s="22">
-        <v>0</v>
-      </c>
-      <c r="T33" s="22">
-        <v>0</v>
-      </c>
-      <c r="U33" s="22">
-        <v>0</v>
-      </c>
-      <c r="V33" s="22">
-        <v>0</v>
-      </c>
-      <c r="W33" s="22">
-        <v>0</v>
-      </c>
-      <c r="X33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="22">
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+      <c r="O33" s="16">
+        <v>0</v>
+      </c>
+      <c r="P33" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>0</v>
+      </c>
+      <c r="R33" s="16">
+        <v>0</v>
+      </c>
+      <c r="S33" s="16">
+        <v>0</v>
+      </c>
+      <c r="T33" s="16">
+        <v>0</v>
+      </c>
+      <c r="U33" s="16">
+        <v>0</v>
+      </c>
+      <c r="V33" s="16">
+        <v>0</v>
+      </c>
+      <c r="W33" s="16">
+        <v>0</v>
+      </c>
+      <c r="X33" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="16">
         <v>0</v>
       </c>
       <c r="AE33" s="10">
@@ -5063,82 +5064,82 @@
       <c r="D34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <v>0</v>
-      </c>
-      <c r="H34" s="22">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22">
-        <v>0</v>
-      </c>
-      <c r="J34" s="22">
-        <v>0</v>
-      </c>
-      <c r="K34" s="22">
-        <v>0</v>
-      </c>
-      <c r="L34" s="22">
-        <v>0</v>
-      </c>
-      <c r="M34" s="22">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22">
-        <v>0</v>
-      </c>
-      <c r="O34" s="22">
-        <v>0</v>
-      </c>
-      <c r="P34" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>0</v>
-      </c>
-      <c r="R34" s="22">
-        <v>0</v>
-      </c>
-      <c r="S34" s="22">
-        <v>0</v>
-      </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="22">
-        <v>0</v>
-      </c>
-      <c r="V34" s="22">
-        <v>0</v>
-      </c>
-      <c r="W34" s="22">
-        <v>0</v>
-      </c>
-      <c r="X34" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="22">
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <v>0</v>
+      </c>
+      <c r="O34" s="16">
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <v>0</v>
+      </c>
+      <c r="S34" s="16">
+        <v>0</v>
+      </c>
+      <c r="T34" s="16">
+        <v>0</v>
+      </c>
+      <c r="U34" s="16">
+        <v>0</v>
+      </c>
+      <c r="V34" s="16">
+        <v>0</v>
+      </c>
+      <c r="W34" s="16">
+        <v>0</v>
+      </c>
+      <c r="X34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="16">
         <v>0</v>
       </c>
       <c r="AE34" s="10">
@@ -5156,82 +5157,82 @@
       <c r="D35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="22">
-        <v>0</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0</v>
-      </c>
-      <c r="G35" s="22">
-        <v>0</v>
-      </c>
-      <c r="H35" s="22">
-        <v>0</v>
-      </c>
-      <c r="I35" s="22">
-        <v>0</v>
-      </c>
-      <c r="J35" s="22">
-        <v>0</v>
-      </c>
-      <c r="K35" s="22">
-        <v>0</v>
-      </c>
-      <c r="L35" s="22">
-        <v>0</v>
-      </c>
-      <c r="M35" s="22">
-        <v>0</v>
-      </c>
-      <c r="N35" s="22">
-        <v>0</v>
-      </c>
-      <c r="O35" s="22">
-        <v>0</v>
-      </c>
-      <c r="P35" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="22">
-        <v>0</v>
-      </c>
-      <c r="R35" s="22">
-        <v>0</v>
-      </c>
-      <c r="S35" s="22">
-        <v>0</v>
-      </c>
-      <c r="T35" s="22">
-        <v>0</v>
-      </c>
-      <c r="U35" s="22">
-        <v>0</v>
-      </c>
-      <c r="V35" s="22">
-        <v>0</v>
-      </c>
-      <c r="W35" s="22">
-        <v>0</v>
-      </c>
-      <c r="X35" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="22">
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <v>0</v>
+      </c>
+      <c r="O35" s="16">
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>0</v>
+      </c>
+      <c r="R35" s="16">
+        <v>0</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0</v>
+      </c>
+      <c r="T35" s="16">
+        <v>0</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0</v>
+      </c>
+      <c r="V35" s="16">
+        <v>0</v>
+      </c>
+      <c r="W35" s="16">
+        <v>0</v>
+      </c>
+      <c r="X35" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="16">
         <v>0</v>
       </c>
       <c r="AE35" s="10">
@@ -5249,82 +5250,82 @@
       <c r="D36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="22">
-        <v>0</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0</v>
-      </c>
-      <c r="G36" s="22">
-        <v>0</v>
-      </c>
-      <c r="H36" s="22">
-        <v>0</v>
-      </c>
-      <c r="I36" s="22">
-        <v>0</v>
-      </c>
-      <c r="J36" s="22">
-        <v>0</v>
-      </c>
-      <c r="K36" s="22">
-        <v>0</v>
-      </c>
-      <c r="L36" s="22">
-        <v>0</v>
-      </c>
-      <c r="M36" s="22">
-        <v>0</v>
-      </c>
-      <c r="N36" s="22">
-        <v>0</v>
-      </c>
-      <c r="O36" s="22">
-        <v>0</v>
-      </c>
-      <c r="P36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="22">
-        <v>0</v>
-      </c>
-      <c r="R36" s="22">
-        <v>0</v>
-      </c>
-      <c r="S36" s="22">
-        <v>0</v>
-      </c>
-      <c r="T36" s="22">
-        <v>0</v>
-      </c>
-      <c r="U36" s="22">
-        <v>0</v>
-      </c>
-      <c r="V36" s="22">
-        <v>0</v>
-      </c>
-      <c r="W36" s="22">
-        <v>0</v>
-      </c>
-      <c r="X36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="22">
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0</v>
+      </c>
+      <c r="N36" s="16">
+        <v>0</v>
+      </c>
+      <c r="O36" s="16">
+        <v>0</v>
+      </c>
+      <c r="P36" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>0</v>
+      </c>
+      <c r="R36" s="16">
+        <v>0</v>
+      </c>
+      <c r="S36" s="16">
+        <v>0</v>
+      </c>
+      <c r="T36" s="16">
+        <v>0</v>
+      </c>
+      <c r="U36" s="16">
+        <v>0</v>
+      </c>
+      <c r="V36" s="16">
+        <v>0</v>
+      </c>
+      <c r="W36" s="16">
+        <v>0</v>
+      </c>
+      <c r="X36" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="16">
         <v>0</v>
       </c>
       <c r="AE36" s="10">
@@ -5342,4 +5343,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC53DE-CF7E-4130-93F8-C0E694C0BBC9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>